--- a/docs/samples/smfGetEconData.xlsx
+++ b/docs/samples/smfGetEconData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>INTGSTUSM193N</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Market Yield on U.S. Treasury Securities at 2-Year Constant Maturity, Quoted on an Investment Basis (DGS2)</t>
+  </si>
+  <si>
+    <t>VIXCLS</t>
+  </si>
+  <si>
+    <t>CBOE Volatility Index: VIX (VIXCLS)</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/VIXCLS</t>
   </si>
 </sst>
 </file>
@@ -537,10 +546,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,6 +820,27 @@
         <v>22</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45339</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="array" ref="C16:D16">[1]!smfGetEconData(A16, B16)</f>
+        <v>14.01</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G12" r:id="rId1"/>
@@ -823,9 +853,10 @@
     <hyperlink ref="G8" r:id="rId8"/>
     <hyperlink ref="G7" r:id="rId9"/>
     <hyperlink ref="G6" r:id="rId10"/>
+    <hyperlink ref="G16" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
